--- a/数据整理/stocks/A股/深证主板/002135-东南网架.xlsx
+++ b/数据整理/stocks/A股/深证主板/002135-东南网架.xlsx
@@ -1,96 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q3" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>501075</t>
-  </si>
-  <si>
-    <t>007501</t>
-  </si>
-  <si>
-    <t>万家科创主题3年封闭运作灵活配置混合A</t>
-  </si>
-  <si>
-    <t>万家科创主题3年封闭运作灵活配置混合C</t>
-  </si>
-  <si>
-    <t>20.44</t>
-  </si>
-  <si>
-    <t>75.80</t>
-  </si>
-  <si>
-    <t>2.93</t>
-  </si>
-  <si>
-    <t>0.5989</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -415,86 +446,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5989</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002135-东南网架.xlsx
+++ b/数据整理/stocks/A股/深证主板/002135-东南网架.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -576,7 +577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,17 +588,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -607,13 +628,369 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001424</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001425</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002135-东南网架.xlsx
+++ b/数据整理/stocks/A股/深证主板/002135-东南网架.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -937,7 +938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -948,17 +949,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -968,14 +989,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.37</v>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1385</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -984,13 +1027,841 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8969</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8308</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7815</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4338</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4338</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4213</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>43.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4089</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>43.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4089</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3701</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012924</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012925</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>43.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>38.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002135-东南网架.xlsx
+++ b/数据整理/stocks/A股/深证主板/002135-东南网架.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1792,7 +1793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1803,17 +1804,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1823,14 +1844,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.63</v>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1839,14 +1882,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.37</v>
+          <t>003300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1855,13 +1920,285 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015068</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015407</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002135-东南网架.xlsx
+++ b/数据整理/stocks/A股/深证主板/002135-东南网架.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,122 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501075</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20.44</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>75.80</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5989</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007501</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>75.80</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -579,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001424</t>
+          <t>000866</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时新起点灵活配置混合A</t>
+          <t>华宝高端制造股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>22.47</t>
+          <t>88.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1506</t>
+          <t>0.0723</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -668,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000866</t>
+          <t>003300</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝高端制造股票</t>
+          <t>华夏圆和灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>81.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0872</t>
+          <t>0.0367</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -706,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001425</t>
+          <t>011027</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时新起点灵活配置混合C</t>
+          <t>国寿安保稳弘混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22.47</t>
+          <t>38.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0410</t>
+          <t>0.0192</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -744,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001242</t>
+          <t>011028</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时中证淘金大数据100指数A</t>
+          <t>国寿安保稳弘混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.07</t>
+          <t>38.88</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0307</t>
+          <t>0.0119</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -782,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001243</t>
+          <t>004284</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时中证淘金大数据100指数I</t>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.07</t>
+          <t>20.31</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0307</t>
+          <t>0.0065</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -820,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>013242</t>
+          <t>015068</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>北信瑞丰优势行业股票</t>
+          <t>华夏圆和灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.14</t>
+          <t>81.65</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0276</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -858,74 +833,34 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002952</t>
+          <t>015407</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>建信多因子量化股票</t>
+          <t>国寿安保稳弘混合E</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.66</t>
+          <t>38.88</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007808</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>北信瑞丰量化优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>79.77</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1793,7 +1728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1844,36 +1779,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000866</t>
+          <t>001424</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝高端制造股票</t>
+          <t>博时新起点灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.51</t>
+          <t>22.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0723</t>
+          <t>0.1506</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1882,36 +1817,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003300</t>
+          <t>000866</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏圆和灵活配置混合</t>
+          <t>华宝高端制造股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.65</t>
+          <t>93.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0367</t>
+          <t>0.0872</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1920,36 +1855,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011027</t>
+          <t>001425</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国寿安保稳弘混合A</t>
+          <t>博时新起点灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>38.88</t>
+          <t>22.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0192</t>
+          <t>0.0410</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1958,36 +1893,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011028</t>
+          <t>001242</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国寿安保稳弘混合C</t>
+          <t>博时中证淘金大数据100指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>38.88</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0119</t>
+          <t>0.0307</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1996,36 +1931,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004284</t>
+          <t>001243</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华宝新优选一年定期开放灵活配置混合</t>
+          <t>博时中证淘金大数据100指数I</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20.31</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0065</t>
+          <t>0.0307</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2034,36 +1969,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>015068</t>
+          <t>013242</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏圆和灵活配置混合C</t>
+          <t>北信瑞丰优势行业股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>81.65</t>
+          <t>92.14</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0019</t>
+          <t>0.0276</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -2072,34 +2007,74 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>015407</t>
+          <t>002952</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国寿安保稳弘混合E</t>
+          <t>建信多因子量化股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>38.88</t>
+          <t>89.66</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2113,96 +2088,121 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.15</v>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5989</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.63</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6</v>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>